--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="215">
   <si>
     <t>Timestamp</t>
   </si>
@@ -554,6 +554,207 @@
   </si>
   <si>
     <t>Alles gut!</t>
+  </si>
+  <si>
+    <t>khuderanjit99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer project-based assessments because they align more closely with my learning style. They allow me to apply knowledge creatively, work at my own pace, and demonstrate understanding through practical outcomes rather than just memorizing content for a test. This method feels more meaningful and fair, especially for complex subjects.
+</t>
+  </si>
+  <si>
+    <t>One positive experience I had was during a group project in a science class. We designed an experiment and presented our findings. It worked well because it encouraged collaboration, critical thinking, and hands-on application of what we had learned. I felt more engaged and retained the information better than I would have through a written test.</t>
+  </si>
+  <si>
+    <t>One of the biggest challenges with traditional essays is the time pressure and the vague nature of some prompts. It can be frustrating trying to guess what the evaluator is really looking for. There's also a lot of pressure to write in a specific academic style that doesn’t always reflect how well I understand the topic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find oral assessments a bit stressful due to performance anxiety and fear of being put on the spot. However, when I’ve had time to prepare, they’ve also been helpful for developing confidence and improving my communication skills. The stress mostly comes from uncertainty about the questions or how the evaluator will react.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project-based assessments do a better job of showing what I’ve actually learned, especially when it comes to practical skills and problem-solving. They also give room for creativity and teamwork, which aren’t captured well in tests or essays. It’s easier to show effort and depth of understanding in a project than in a time-limited exam.
+</t>
+  </si>
+  <si>
+    <t>Yes, I think traditional written assessments, especially take-home essays, can tempt students to use AI tools or plagiarize because it's easy to do and hard to detect. In contrast, project-based or oral assessments are more personalized and interactive, which makes dishonesty harder and less appealing. They tend to reflect genuine effort more clearly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My ideal assessment would combine a short written reflection, a creative project, and a brief oral presentation. This mix would allow me to explain my ideas clearly in writing, apply them in a practical way, and demonstrate understanding through spoken communication. It would reflect both what I know and how I think, offering a more complete picture of my learning.
+</t>
+  </si>
+  <si>
+    <t>emolebhai@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer oral or presentation-based assessments because they allow me to explain my thinking in real time. I often understand a topic well but struggle to express it clearly in writing. Speaking gives me a chance to clarify my ideas, adapt to follow-up questions, and feel more involved in the evaluation process. It feels more personal and fair.
+</t>
+  </si>
+  <si>
+    <t>A positive experience I had was during a class debate. It was technically an oral assessment, but in a discussion format. It worked well because I had time to research, organize my arguments, and respond to opposing views. It made me think critically, and the interaction made learning more dynamic and memorable.</t>
+  </si>
+  <si>
+    <t>What frustrates me most is that essays often feel disconnected from how we use knowledge in real life. There’s pressure to use a specific format and vocabulary, and sometimes it feels more like a test of writing skills than understanding. Also, if the prompt is unclear, it’s hard to know if you're even answering it correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’ve found them both helpful and a bit stressful. The helpful part is that I can show how well I know the topic through my own words and examples. The stress usually comes from nervousness, especially in front of a class or when I’m unsure how much detail is expected. But overall, I think the interaction helps deepen understanding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They definitely show a broader range of what I’ve learned. With projects, I can demonstrate how I apply knowledge, not just recall it. I also enjoy being able to choose a topic or format that fits my interests or strengths. They often involve more time and effort, but the learning feels more real and lasting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I think the format matters a lot. For example, generic essays can be tempting to outsource or generate with AI, especially if students feel lost. But assessments that involve personal input, creativity, or direct interaction (like presentations or unique projects) make dishonesty harder and less attractive. They feel more “customized,” so copying doesn’t really work.
+</t>
+  </si>
+  <si>
+    <t>My ideal format would blend a structured written part with an interactive component like a Q&amp;A or group discussion. I’d like clear criteria, chances to ask for feedback, and maybe even options to choose between formats. That way, students could play to their strengths while still showing real understanding and effort.</t>
+  </si>
+  <si>
+    <t>ronishadesai@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer project-based assessments because they allow me to learn by doing, which matches my hands-on learning style. Projects give me the chance to apply what I’ve learned in a real-world or creative way, making the content more meaningful and easier to remember. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One positive experience I had was with a project-based assessment in a science class. We had to design and present a model of an eco-friendly home, explaining how it worked and why we made certain choices. What made it work well for me was the freedom to be creative and the chance to work at my own pace. </t>
+  </si>
+  <si>
+    <t>What I find most challenging about traditional essay-based assessments is the time pressure and the struggle to clearly organize my thoughts quickly. Sometimes, even if I understand the topic well, I find it hard to express everything in a structured way under a strict time limit.</t>
+  </si>
+  <si>
+    <t>I’ve found oral assessments to be both helpful and stressful. They’re helpful because they push me to really understand the material—since I have to explain it clearly and answer questions on the spot. It also improves my communication skills and confidence over time.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments often do a much better job of showing what I’ve truly learned compared to traditional tests or essays. They allow me to demonstrate practical skills, like problem-solving, critical thinking, and creativity, which aren’t always visible in written formats.</t>
+  </si>
+  <si>
+    <t>Yes, I think certain assessment formats can encourage or discourage academic dishonesty, especially with tools like AI becoming more accessible. For example, traditional written assignments or essays are more likely to tempt students to use AI tools to write for them—mainly because it’s easy to copy and paste, and sometimes the questions are so broad or repetitive that it doesn’t feel personal or meaningful.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would be a combination of a project, a short reflection, and a brief presentation.
+	•	The project would let me apply what I’ve learned in a creative or practical way—like building something, designing a solution, or exploring a topic deeply.</t>
+  </si>
+  <si>
+    <t>bhuvaasmita152@gmail.com</t>
+  </si>
+  <si>
+    <t>real time feedback</t>
+  </si>
+  <si>
+    <t>An oral assessment with real-time feedback gave me instant insights, boosted my confidence, and turned evaluation into a valuable learning exchange.</t>
+  </si>
+  <si>
+    <t>Time pressure, unclear questions, writing-skill bias, plagiarism risk, and limited real-world relevance.</t>
+  </si>
+  <si>
+    <t>Helpful due to real-time interaction and feedback, but stressful from confidence and language pressure.</t>
+  </si>
+  <si>
+    <t>Project-based assessments better showcase practical skills, creativity, sustained effort, and teamwork than traditional formats.</t>
+  </si>
+  <si>
+    <t>Yes — written assessments may tempt AI or plagiarism use due to ease and low detection, while oral and project-based formats discourage it through real-time interaction and observable work.</t>
+  </si>
+  <si>
+    <t>Project work plus oral exam for practical skills, understanding, and fairness.</t>
+  </si>
+  <si>
+    <t>kevalakbari2015@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because easy to give answers and get result instantly </t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Sonetimes language</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Yes, certain formats like take-home essays or online quizzes can encourage dishonesty due to easy access to AI tools and low risk of detection. In contrast, in-class exams or oral assessments discourage cheating by limiting resources and allowing real-time evaluation.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine open-ended, real-world tasks with in-person presentations. This format promotes critical thinking, limits AI overuse, and allows instructors to assess understanding through dialogue, reducing cheating while encouraging authentic learning.</t>
+  </si>
+  <si>
+    <t>harshkukadiya2023@gmail.com</t>
+  </si>
+  <si>
+    <t>I’m not sure / New to these types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects lead me to find a deep understanding and also real time experience </t>
+  </si>
+  <si>
+    <t>I've been doing projects all over my education and it's the best I'd say, essays are too old school.</t>
+  </si>
+  <si>
+    <t>We first of all, have to understand the topic, the deepness, what exactly the person want from us, which can be Little time consuming and, students being students, they'll seek for some already generated content to get a help and that leads to plagiarism.</t>
+  </si>
+  <si>
+    <t>It's helpful at some extent but totally stressful.</t>
+  </si>
+  <si>
+    <t>The knowledge we have, we have to apply it to the real time system, which leads to hands on experience and also help in future industry.</t>
+  </si>
+  <si>
+    <t>Yes, no doubt, a assessment fromat likr essay and all, Students do is all about getting content from one end to writing it on another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think project based learning with oral assessments of concepts </t>
+  </si>
+  <si>
+    <t>aviluhana@gmail.com</t>
+  </si>
+  <si>
+    <t>We can learn more practically.</t>
+  </si>
+  <si>
+    <t>I could add the projects in my CV and explain in interviews.</t>
+  </si>
+  <si>
+    <t>Gether information</t>
+  </si>
+  <si>
+    <t>Yes, because it is interesting for me to work on these.</t>
+  </si>
+  <si>
+    <t>Project-based assessments better reflect practical skills, creativity, effort, and teamwork than traditional tests, showing real-world learning more clearly.</t>
+  </si>
+  <si>
+    <t>I support the use of AI tools, especially in formats like projects or research tasks, where they enhance learning and creativity. Dishonesty depends more on intent than the tool itself. With proper guidance, AI can be a helpful part of the learning process.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine projects, presentations, and reflective writing. This mix shows practical skills, creativity, communication, and how well I understand and apply what I've learned.</t>
+  </si>
+  <si>
+    <t>anadkatkanan1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Performance-based assessment is better because it measures students’ ability to apply knowledge in real-world tasks, not just recall facts.</t>
+  </si>
+  <si>
+    <t>Completing a hands-on science project was a positive assessment experience because it allowed me to creatively apply what I had learned.</t>
+  </si>
+  <si>
+    <t>Traditional essay-based assessments can be frustrating because they often prioritize writing style over actual understanding or practical application of knowledge.</t>
+  </si>
+  <si>
+    <t>I found oral assessments stressful because of performance anxiety, but helpful for improving my communication and critical thinking skills.</t>
+  </si>
+  <si>
+    <t>Project-based assessments better showcase what I’ve learned by allowing me to apply knowledge in practical, real-world tasks.</t>
+  </si>
+  <si>
+    <t>Certain formats like multiple-choice exams can encourage dishonesty, while performance-based tasks discourage it by requiring original, hands-on work.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine practical projects and reflective presentations to assess both applied skills and deep understanding.</t>
   </si>
 </sst>
 </file>
@@ -584,7 +785,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -740,25 +941,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -798,13 +985,28 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -865,7 +1067,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O16" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O24" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="15">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -1792,50 +1994,408 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>45875.484572719906</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="7" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13">
+        <v>45875.510181875</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15">
+        <v>45875.51506962963</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13">
+        <v>45875.57534203704</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15">
+        <v>45875.58596581018</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13">
+        <v>45875.59010585648</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15">
+        <v>45875.60513386574</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13">
+        <v>45875.616069814816</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19">
+        <v>45875.78531871528</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="698">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1587,6 +1587,818 @@
   </si>
   <si>
     <t>Primarily oral/viva-based exams with some visual aids or slides. This lets me explain my reasoning, answer follow-up questions, and use visuals to clarify complex points. It balances knowledge demonstration with communication skills.</t>
+  </si>
+  <si>
+    <t>azanation66@gmail.com</t>
+  </si>
+  <si>
+    <t>Asim</t>
+  </si>
+  <si>
+    <t>asim.ali@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Oral study methods—like discussing topics, explaining concepts out loud, or engaging in group debates—can be highly effective because they force active recall, clarify thinking, and reveal gaps in understanding. Speaking engages different cognitive pathways than silent reading, improving retention and comprehension. It also boosts communication skills and confidence. However, effectiveness depends on the learner’s comfort with speaking and the quality of feedback they receive.</t>
+  </si>
+  <si>
+    <t>In my final year of high school, our history teacher replaced the usual written test with a “mock press conference.” Each student played the role of a historical figure, and the rest of the class acted as reporters. I had to portray Marie Curie, answering questions about her discoveries and challenges. At first, I was nervous, but as the questions flowed, I realized I had actually absorbed far more than I thought. The interactive format made the assessment feel less like an exam and more like a performance, and I left the classroom feeling proud, energized, and more connected to the subject.</t>
+  </si>
+  <si>
+    <t>One common frustration with traditional essay-based assessments is that they often measure how well you can structure and express ideas under time pressure rather than how deeply you understand the topic. Sometimes, the focus shifts to meeting word counts or formatting rules instead of exploring ideas in depth. This can disadvantage students who think more visually or verbally, or those who need more time to process and refine their arguments, even if they have strong knowledge of the material.</t>
+  </si>
+  <si>
+    <t>Oral assessments have been both helpful and stressful for me. Helpful, because explaining ideas out loud made me organize my thoughts clearly and anticipate questions I hadn’t considered. Stressful, because the pressure of speaking in front of evaluators triggered nerves, especially if I felt underprepared. For me, the biggest factor was confidence—when I had practiced thoroughly and knew the material well, I felt energized by the interaction; when I hadn’t, every pause felt like an eternity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Project-based and performance-based assessments often show learning in a fuller, more practical way than traditional tests. They allow you to demonstrate practical skills—like problem-solving, planning, and applying concepts in real contexts—while also leaving space for creativity in how you approach the task. Because they usually take longer to complete, they reflect sustained effort and can highlight team involvement, showing how well you collaborate and communicate. Compared to a single written test, they provide a richer picture of both what you know and how you can use it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yeah, some formats definitely make it easier—or more tempting—to cheat. For example, take-home essays or online quizzes can tempt people to use AI tools or copy from the internet because there’s time, privacy, and fewer immediate checks. In contrast, things like oral exams, live presentations, or in-class problem solving are harder to fake since you have to respond in real time and show your own thinking. I think the temptation really depends on two things: how much pressure the student feels, and how easy it is to get away with it without being caught. If the format feels more personal and interactive, dishonesty becomes riskier and less appealing.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would be a blend of formats so it captures both knowledge and how I use it. I’d start with a short written component to show clear understanding of concepts, then a project or case study where I apply those ideas to a real-world scenario, and finally an oral discussion or presentation to explain my process and answer questions. This mix would reflect my research skills, creativity, and ability to think on my feet, while also making the assessment feel fairer—since it wouldn’t hinge on just one type of performance under pressure.</t>
+  </si>
+  <si>
+    <t>Nothing much may be more explanation but it was really good</t>
+  </si>
+  <si>
+    <t>farjatunnessa1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farjatun </t>
+  </si>
+  <si>
+    <t>Nessa</t>
+  </si>
+  <si>
+    <t>farjatun.nessa@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>In Process-base-assessments I can think and justify my answer also I can prepare myself to answer correctly where in viba or oral I dont find time to think and also some people got nervous in oral and for projects actually short time period submit project is a pressure on me, so I prefer  Process-base-assessments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One positive experience I had was during a written exam in university. I remember feeling unsure of my answers and thinking I might fail, but I decided to write down everything I knew, step by step. To my surprise, I passed the exam. What made this assessment work well for me was that it rewarded partial knowledge and logical thinking, rather than only exact memorization. Even though I wasn’t confident, the structure allowed me to demonstrate what I did know, which ultimately helped me succeed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What I find most challenging about traditional essay-based assessments is figuring out where to start. I often struggle to identify a clear direction and connect my ideas to relevant research papers. I also find it difficult to develop a strong research question, which makes it harder to build a well-organized and coherent essay.
+</t>
+  </si>
+  <si>
+    <t>I find oral assessments to be a mix of helpful and stressful. They can be helpful when the questions are straightforward, as they give me a chance to explain my ideas clearly. However, they can also be stressful when a professor gives a low mark based on one question I couldn’t answer, even if I answered most of the other questions correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I am not very technically skilled, I find project-based or performance-based assessments a bit harder compared to other types of assessment. While they do reflect practical skills, creativity, and teamwork, I often feel that my limited technical knowledge makes it more challenging for me to fully demonstrate what I’ve learned in this format.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I think certain assessment formats can unintentionally encourage academic dishonesty. For example, I have seen situations where some professors give passing marks to students based on how they interact in class, while other students who may write well in their assessments still fail. This can create a sense of unfairness and tempt students to use shortcuts, including AI tools, to try to match the perceived expectations.
+</t>
+  </si>
+  <si>
+    <t>I would design a mix of three assessment types—written exams, oral assessments, and project-based work. Together, they can give a more complete picture of my learning. Written exams would test my theoretical understanding, oral assessments would evaluate my ability to explain and think on the spot, and project-based work would reflect my practical skills and creativity. Combining these formats would balance different strengths and provide a fairer evaluation.</t>
+  </si>
+  <si>
+    <t>Most of them are text based please add some likert or questionnaire type</t>
+  </si>
+  <si>
+    <t>krupeshpethani2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Krupeshbhai Vipulbhai</t>
+  </si>
+  <si>
+    <t>Pethani</t>
+  </si>
+  <si>
+    <t>krupesh.pethani@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer process-based assessments because they allow me to reflect on my learning, improve gradually, and present my understanding in a structured way. They reduce the pressure of one-time performance and give a fairer evaluation of my knowledge and analytical skills.</t>
+  </si>
+  <si>
+    <t>During my undergraduate studies, I wrote a research-based essay on emerging testing methods. The process gave me time to research deeply, revise my work, and receive constructive feedback. This approach helped me gain confidence and a stronger grasp of the subject.</t>
+  </si>
+  <si>
+    <t>One challenge with essay-based assessments is managing time effectively while ensuring depth and clarity. The risk of misinterpreting the question and the temptation to over-rely on existing sources can also create stress and affect the originality of the work.</t>
+  </si>
+  <si>
+    <t>Oral assessments can be helpful for improving communication skills, but I often find them stressful due to performance anxiety and time pressure. The need to think and respond instantly can sometimes overshadow the depth of knowledge I want to present.</t>
+  </si>
+  <si>
+    <t>Project-based assessments often reflect practical skills, creativity, and teamwork more effectively than written formats. They allow students to apply theoretical knowledge to real-world scenarios, but they can sometimes overemphasize collaboration, making it harder to measure individual contributions accurately.</t>
+  </si>
+  <si>
+    <t>Timed oral or project-based assessments can discourage dishonesty because they require real-time responses or personal contributions. Process-based written tasks may be more vulnerable to misuse of AI tools, though clear guidelines and originality checks can help maintain academic integrity.</t>
+  </si>
+  <si>
+    <t>My ideal format would combine process-based essays with small, interactive presentations. This would allow me to demonstrate deep understanding through research while also practicing communication skills. A blended approach ensures a fair, well-rounded evaluation of both knowledge and application.</t>
+  </si>
+  <si>
+    <t>akshaybaldha2023@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay Dineshbhai</t>
+  </si>
+  <si>
+    <t>Baldha</t>
+  </si>
+  <si>
+    <t>akshay.baldha@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer process-based assessments because they match my learning style and allow me to show my understanding gradually. They feel fairer since effort and improvement are recognized, not just the final result, and they help me learn more effectively by reflecting on each step of the work.</t>
+  </si>
+  <si>
+    <t>A positive experience I had was with a process-based assessment where I had to maintain a weekly journal for a course. It worked well because I could track my learning step by step, reflect on what I understood or struggled with, and get feedback along the way. This made the assessment less stressful and helped me improve continuously rather than relying on a single exam.</t>
+  </si>
+  <si>
+    <t>The most challenging part of traditional essay-based assessments is time pressure and the focus on the final product rather than the learning process. Sometimes the questions can feel unclear or too broad, making it hard to demonstrate understanding, and there’s less opportunity to show progress or get feedback along the way.</t>
+  </si>
+  <si>
+    <t>I have found oral assessments a bit stressful, mainly due to confidence and language. Even when I prepared well, speaking in front of evaluators made me nervous, and I sometimes struggled to express my ideas clearly under pressure. However, they were also helpful for improving my communication skills and thinking on my feet.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments are often better at showing practical skills, creativity, and effort compared to exams or essays. They let you demonstrate what you can actually do, involve real-world problem-solving, and often require teamwork, which reflects both individual understanding and collaboration skills.</t>
+  </si>
+  <si>
+    <t>Yes, certain assessment formats can influence academic dishonesty. Exams or essays may tempt some students to misuse AI tools because answers can be generated quickly. In contrast, process-based or project-based assessments discourage dishonesty since they track progress over time, require original work, and are easier for instructors to verify, making cheating more difficult.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would be a blend of process-based and project-based assessments. It would include regular checkpoints to track progress, opportunities for reflection and feedback, and a final project to demonstrate practical skills and creativity. This combination would best reflect both my learning process and the ability to apply knowledge effectively.</t>
+  </si>
+  <si>
+    <t>Yes, I would suggest adding more process-based and project-based elements to the study. Including checkpoints, reflections, or small projects would make it easier to track learning, get feedback, and demonstrate practical skills, making the assessment more engaging and meaningful.</t>
+  </si>
+  <si>
+    <t>josephger2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>joseph.antony@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer performance-based assessments because they allow me to demonstrate my skills and understanding in a practical, hands-on way. This method suits my learning style, as I grasp concepts better through application rather than memorization. It feels fairer and more effective, as it assesses not just knowledge but also creativity, problem-solving, and real-world readiness.</t>
+  </si>
+  <si>
+    <t>During my bachelor's college project, I had a positive experience with performance-based assessment. Practically implementing the project helped me understand the concepts deeply, much more than just studying theory or other assessment modes. This hands-on approach made learning engaging and effective, reinforcing my skills through real application and problem-solving in a meaningful way.</t>
+  </si>
+  <si>
+    <t>I find traditional essay-based assessments challenging because they often involve time pressure and can feel disconnected from practical application. Sometimes the questions lack clarity, making it harder to address them effectively. Additionally, this method mainly tests writing skills and memorization rather than hands-on problem-solving, which makes it less relevant to how I learn best.</t>
+  </si>
+  <si>
+    <t>I have found oral assessments both helpful and stressful. They are helpful because they allow me to explain my understanding clearly and interact with evaluators, which can boost confidence. However, they can also be stressful due to the pressure of speaking fluently, managing nerves, and preparing thoroughly to convey my ideas effectively under time constraints.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments reflect learning more effectively than other formats because they showcase practical skills, creativity, and real-world problem-solving. They allow learners to demonstrate effort through tangible outcomes and often involve teamwork, highlighting collaboration skills. Unlike traditional exams, they assess both knowledge and its application, giving a more complete picture of one’s abilities.</t>
+  </si>
+  <si>
+    <t>Certain assessment formats can either encourage or discourage academic dishonesty. Traditional essay-based assessments may tempt cheating due to easy access to online resources and AI tools, while oral and performance-based assessments discourage dishonesty as they require real-time demonstration of skills and creativity, making cheating more difficult to conceal. Detection is also easier in interactive formats.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would combine performance-based projects, oral presentations, and reflective journals. This blend allows me to practically apply skills, demonstrate understanding through clear communication, and reflect on my learning process. It balances creativity, teamwork, and critical thinking while minimizing academic dishonesty and catering to different learning styles for a comprehensive evaluation.</t>
+  </si>
+  <si>
+    <t>Include more questions on how different assessment formats impact students’ motivation and confidence.</t>
+  </si>
+  <si>
+    <t>harshvaddoriya2550@gmail.com</t>
+  </si>
+  <si>
+    <t>harsh bholabhai</t>
+  </si>
+  <si>
+    <t>vaddoriya</t>
+  </si>
+  <si>
+    <t>harsh.vaddoriya@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer project-based assessment because it matches my learning style, lets me apply knowledge in a practical way, and feels fairer as it evaluates real skills rather than memorization.</t>
+  </si>
+  <si>
+    <t>I had a positive experience with a project-based assessment where I developed a small web app. It worked well because it was hands-on, allowed creativity, and directly applied what I had learned in class.</t>
+  </si>
+  <si>
+    <t>I find traditional essay-based assessments frustrating because of time pressure, vague questions, and the focus on memorization rather than practical, relevant application of knowledge.</t>
+  </si>
+  <si>
+    <t>I find traditional essay-based assessments challenging because of time pressure and the focus on lengthy writing rather than practical application, which can feel less relevant to real-world skills.</t>
+  </si>
+  <si>
+    <t>Project-based assessments show what I’ve learned better because they reflect practical skills, creativity, and effort, and they often include teamwork, which other formats don’t capture as well.</t>
+  </si>
+  <si>
+    <t>Yes, written exams can tempt cheating through hidden notes or AI tools, while project-based assessments discourage it since they require unique, practical work that’s harder to fake and easier to verify.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine a project-based task with a short oral presentation, so I can show practical skills, explain my thinking, and demonstrate genuine understanding.</t>
+  </si>
+  <si>
+    <t>Yes — include more practical, project-based tasks, give clearer questions, and allow flexible formats so students can showcase their skills in different ways.</t>
+  </si>
+  <si>
+    <t>ghayoorali59@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Ghayoor</t>
+  </si>
+  <si>
+    <t>muhammad.ali@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Viva can give the more practical experience and help to judge more clearly</t>
+  </si>
+  <si>
+    <t>It was a judgement competition in my school and i choose viva. And it was better than the students who took essay writing.</t>
+  </si>
+  <si>
+    <t>It takes more time and plagiarism risks</t>
+  </si>
+  <si>
+    <t>It was a judgement competition in my school and i choose viva. it was not stressful because the expression of the telling that im going good and everything is right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project based assessment can give the more practical overview because the person have enough time to show his credibility rather than viva and essay writing </t>
+  </si>
+  <si>
+    <t>Yes, now a days Ai is commonly used even the person that dont have the enough knowledge can represent himself as a experienced more commonly in essay writing.</t>
+  </si>
+  <si>
+    <t>It would be viva, practical things. Or quize.</t>
+  </si>
+  <si>
+    <t>sharmayukta714@gmail.com</t>
+  </si>
+  <si>
+    <t>Yukta</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>yukta.--@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer performance-based assessments like projects and portfolios because they make me feel more comfortable. They match my learning style because I like to show what I know through real work instead of just writing answers in an exam. I think this method is fair because everyone can use their own ideas and skills to complete the task. It is also effective because it shows both what I have learned and how I can apply it in real situations. I feel less nervous with this type of assessment because I can plan my work and take my time. I also learn more because I am actively doing something, not just memorizing. That is why I think this method is better for me.</t>
+  </si>
+  <si>
+    <t>One positive experience I had was when I did a project for my class. The type of assessment was a performance-based project. It worked well for me because I could use my creativity and plan my work at my own pace. I enjoyed collecting information, making something real, and presenting it. It was easy to understand what I had to do, and the teacher gave clear instructions. I did not feel much stress because I could prepare in advance. I also felt proud when I saw the final result of my work.</t>
+  </si>
+  <si>
+    <t>I find essay-based assessments hard because of the time pressure. Sometimes the questions are not very clear, so I get confused about what to write. I also worry about plagiarism risk because even if I use my own words, I might accidentally write something similar to what I read. Another problem is that essays do not always feel relevant to my real learning, as they focus more on writing skills than practical work. For me, it is harder to express my ideas in long writing than to show them in a project. That is why I do not like essays as much.</t>
+  </si>
+  <si>
+    <t>Oral assessments, such as presentations or viva exams, can be stressful for me. My confidence is not always high when I speak in front of others. Even if I prepare, I sometimes forget what I want to say. Language can also be a challenge if I need to speak in English for a long time. The interaction with the evaluators makes me a bit nervous because I am not sure how they will respond. However, if I am well-prepared and the topic is something I am familiar with, I can handle it more effectively. Still, I prefer project-based work over oral tests.</t>
+  </si>
+  <si>
+    <t>Project-based assessments are better for me than other formats because they show my practical skills. I can use creativity to make my work unique and interesting. They also let me show the effort I put into planning, researching, and completing the task. If the project is done in a group, it also helps build teamwork skills. Compared to written exams, projects are more connected to real-life work. They let me apply what I have learned instead of just repeating facts. That makes them a better choice for me</t>
+  </si>
+  <si>
+    <t>I think project-based assessments make cheating harder. In exams or essays, there is more temptation to copy or use AI tools. With a project or portfolio, it is more difficult to cheat because the work is personal and unique. The teacher can see the process and know if it is my own work. It is easier to detect dishonesty in this format because the work usually shows my style and ideas. This makes projects a safer and more honest way to test learning</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would combine projects, small quizzes, and short presentations. The project would show my practical skills and creativity. The quizzes would check my understanding of important facts. The short presentations would help me practice speaking skills without too much stress. This mix would be fair and give different types of learners a chance to do well. It would also show both my knowledge and my ability to use it. I think this would be the best way to reflect my learning and skills.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>devsaif0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saif </t>
+  </si>
+  <si>
+    <t>saif.ahmed@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer performance-based assessments because they match my learning style and give a fairer, more complete picture of my abilities. I feel more comfortable showing what I’ve learned through projects or portfolios, where I can plan, research, and refine my work, rather than being put on the spot in an oral exam or limited to short written answers.</t>
+  </si>
+  <si>
+    <t>One positive experience I’ve had was in my IoT subject, where we were required to submit a research paper as part of the assessment. This process-based assessment worked well for me because it allowed me to explore a topic I was genuinely interested in, conduct in-depth research, and present my findings in a structured way.</t>
+  </si>
+  <si>
+    <t>what I find most challenging about traditional essay-based assessments is the time pressure and the risk that the questions may not fully align with what was most relevant or interesting in the learning process.</t>
+  </si>
+  <si>
+    <t>I’ve found oral assessments like presentations and vivas to be helpful but also stressful. They can be helpful because they improve my confidence, communication skills, and ability to think on my feet. However, they can also be stressful due to performance anxiety especially when speaking in front of evaluators or a large audience.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments give a clearer and more complete picture of what I’ve learned compared to other formats. They let me demonstrate practical skills by applying concepts to real or simulated situations, which shows I can use the knowledge, not just recall it.</t>
+  </si>
+  <si>
+    <t>Yes, I think certain assessment formats can either encourage or discourage academic dishonesty. Traditional written essays done at home may tempt some students to use AI tools or copy from sources because it’s easier to find ready made content online, and detection can be tricky unless the work is closely monitored. Oral assessments tend to discourage dishonesty because you have to respond in real time, making it harder to rely on outside help. Project-based assessments can also reduce the temptation if they require unique, practical outputs or ongoing progress checks, since those are harder to fake and usually show a clear trail of personal effort.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would be a project-based task followed by a presentation. The project would allow me to explore a topic in depth, apply theoretical knowledge to practical situations, and demonstrate creativity and problem-solving skills. The presentation would give me the chance to explain my work, highlight key decisions, and answer questions, which shows I truly understand my project.</t>
+  </si>
+  <si>
+    <t>deepgabani2024@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep jayeshkumar </t>
+  </si>
+  <si>
+    <t>Gabani</t>
+  </si>
+  <si>
+    <t>deep.gabani@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>it is easy and comfortable to find information which we required from the existing projects, essays, journals</t>
+  </si>
+  <si>
+    <t>I once helped someone prepare for a big test in a friendly way.
+Instead of just marking answers right or wrong, we talked through each question and learned together.
+They felt more confident, and it showed them that tests can help you grow, not just judge you.</t>
+  </si>
+  <si>
+    <t>Traditional essay-based assessments can be frustrating or bored because they often focus more on writing</t>
+  </si>
+  <si>
+    <t>when i have given my first presentation, it was stressful, but it was helpful because knowning each mistakes is good start for upcoming tasks</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments often show learning more clearly because you use your knowledge to solve real problems.</t>
+  </si>
+  <si>
+    <t>Project-based and performance-based assessments  show learning better than tests because you apply what you know in real situations problem-solving, creativity</t>
+  </si>
+  <si>
+    <t>My ideal assessment would mix a real-world project</t>
+  </si>
+  <si>
+    <t>virenvaviya2022@gmail.com</t>
+  </si>
+  <si>
+    <t>VIREN MANUBHAI</t>
+  </si>
+  <si>
+    <t>Vaviya</t>
+  </si>
+  <si>
+    <t>viren.vaviya@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer the chosen method because it matches my learning style and gives me the best chance to demonstrate what I actually know. For example, written assessments allow me to organize my thoughts clearly and take the time to explain ideas in detail, which helps me avoid the pressure and quick thinking required in oral exams. They also feel fairer, since everyone has the same amount of time and space to present their answers. Overall, this method is both more comfortable and more effective for showing my understanding.</t>
+  </si>
+  <si>
+    <t>One positive experience I had was with a project-based assessment in a science class. We were tasked with designing a small experiment and presenting our results. It worked well for me because I could explore a topic I was genuinely curious about, work at my own pace, and show my understanding through both visuals and explanations. The hands-on nature made it engaging, and the creative freedom helped me go beyond just memorizing facts.</t>
+  </si>
+  <si>
+    <t>What I find most challenging about traditional essay-based assessments is the time pressure. Even when I know the material, I often feel rushed and can’t fully develop my ideas or refine my wording. Sometimes the essay prompts are also vague, which makes it harder to be sure I’m answering exactly what’s being asked. This can be frustrating because it doesn’t always reflect the depth of understanding I could show in a less pressured format.</t>
+  </si>
+  <si>
+    <t>I’ve often found oral assessments stressful, mainly because of the pressure of speaking in front of others and the possibility of forgetting key points. Even with preparation, my nerves sometimes affect how clearly I express myself. However, I also see their value—they can show quick thinking and allow for more interactive discussion with evaluators. For me, the challenge comes more from confidence than from understanding the material.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments often show what I’ve learned more effectively than tests or essays because they demonstrate practical skills, creativity, and problem-solving in a real-world context. They also allow me to showcase effort over time, rather than just performance in a single sitting. When teamwork is involved, they reflect collaboration skills and the ability to contribute meaningfully to a group. Overall, they feel more authentic in capturing the full scope of my learning.</t>
+  </si>
+  <si>
+    <t>Yes, I think certain formats can influence the likelihood of academic dishonesty. For example, traditional take-home essays can be more tempting for someone to use AI tools or copy from online sources because it’s harder for instructors to monitor the work process. In contrast, oral assessments, timed in-class writing, or project-based tasks with progress checkpoints make dishonesty more difficult, since they require personal input, real-time thinking, or visible stages of work. The easier it is to produce the final product without showing the process, the greater the temptation.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would be a combination of a project-based task and a short reflective explanation. The project would let me apply my learning creatively and demonstrate practical skills, while the reflection would allow me to explain my thinking, challenges, and decision-making process. I’d also include progress checkpoints to show consistent effort and reduce last-minute stress. This mix would highlight both the end product and the process, giving a more complete picture of my abilities than a single test or essay could</t>
+  </si>
+  <si>
+    <t>One suggestion would be to include more open-ended questions that let students explain their reasoning in their own words, rather than only choosing from set options. It might also help to offer space for short examples, so responses are more specific and useful. Finally, keeping the language of the questions simple and clear would ensure that all participants can easily understand and answer accurately.</t>
+  </si>
+  <si>
+    <t>darshilnakrani7834@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshil Dipakbhai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakrani </t>
+  </si>
+  <si>
+    <t>darshil.nakrani@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer the oral assessment method because it allows for real-time interaction, clarification of questions, and assessment of communication skills. It also gives the assessor the opportunity to probe deeper into the learner’s understanding, rather than relying solely on written responses, which might be influenced by literacy level or writing anxiety. Oral assessment can capture a more accurate picture of a learner’s knowledge, critical thinking, and problem-solving ability in a natural conversation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A positive experience I had with an oral assessment was during a training course where the assessor asked open-ended questions and encouraged discussion. I felt more relaxed than in a written exam, and I could explain my reasoning in detail. The assessor gave immediate feedback, which helped me understand my strengths and where I could improve. It felt more like a constructive conversation than a test.
+</t>
+  </si>
+  <si>
+    <t>What I find most challenging about traditional essay-based assessments is the heavy emphasis on writing skills rather than the actual understanding of the subject. Sometimes ideas are clear in my mind, but translating them into structured paragraphs under time pressure can be stressful. This can make the assessment feel like a test of grammar and formatting instead of knowledge and critical thinking.</t>
+  </si>
+  <si>
+    <t>I’ve found oral assessments helpful because they give me the chance to explain my ideas in my own words and clarify any misunderstandings immediately. They feel more interactive and dynamic than written tests, and I can use my communication skills to support my answers. While there can be a bit of nervousness at the start, the conversational nature usually helps me relax and perform better.</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments often provide a clearer and more practical demonstration of what I’ve learned compared to traditional tests. They allow me to apply knowledge in real-world contexts, integrate multiple skills, and showcase creativity and problem-solving. Unlike exams, which can measure memory under pressure, projects show how I can actually use the concepts in practice, making them feel more authentic and meaningful.</t>
+  </si>
+  <si>
+    <t>Yes, I think certain formats can influence the likelihood of academic dishonesty. For example, traditional take-home essays may unintentionally encourage the use of AI tools or plagiarism because the work is done unsupervised and focuses heavily on written output that can be easily generated. In contrast, formats like oral assessments, in-class projects, or live problem-solving make it harder to use outside help undetected and encourage genuine understanding over copying.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would combine a practical project with a short oral discussion. The project would let me apply what I’ve learned to a real-world task, showing creativity, problem-solving, and technical skills. The oral discussion would allow me to explain my decisions, clarify any misunderstandings, and demonstrate deeper understanding. This mix would balance hands-on application with verbal reasoning, making the assessment fairer and harder to fake, while also being more engaging and meaningful.</t>
+  </si>
+  <si>
+    <t>ashutoshgoswami05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashutosh </t>
+  </si>
+  <si>
+    <t>Goswami</t>
+  </si>
+  <si>
+    <t>ashutosh.goswami@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Oral based assessments are more easy, you can freely describe your thoughts than other ways of assesments, also there is an interraction between the examiner or audience which already makes it more worth the effort.</t>
+  </si>
+  <si>
+    <t>Oral examination rather than a written examination because the goal of the answer was to judge the concept and you don't have strain your hand straight for 1:30 hrs for writing. Maybe writing better on a computer.</t>
+  </si>
+  <si>
+    <t>Plagrisim is definitely there based on ai assistants, clarity of questions because the questions are framed in a certain way which is given to all the same which can be oercieved very differently.</t>
+  </si>
+  <si>
+    <t>Helpful although there is always certain kind of stress or pressure for performing good.</t>
+  </si>
+  <si>
+    <t>As it involves the real implementation rather than theoretical, which is definitely a proof of learning.</t>
+  </si>
+  <si>
+    <t>As it easy to ask ai rather than going in depth and spend time.</t>
+  </si>
+  <si>
+    <t>Combination of viva, presentation and project based assessment.</t>
+  </si>
+  <si>
+    <t>usmanzafar280@gmail.com</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
+    <t>Zafar</t>
+  </si>
+  <si>
+    <t>usman.zafar@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>We are computer science student and practical is more important to us. It is more interesting and engaging</t>
+  </si>
+  <si>
+    <t>Project.
+I had a great experience with a project-based assessment our Final Year Project. It is more practical and give real world experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To memorize spend a lot of time on it time-consuming,
+</t>
+  </si>
+  <si>
+    <t>Due to lack of preparation. A little bit of self confidence while speaking potential language barriers.</t>
+  </si>
+  <si>
+    <t>Project based is more practical reflecting my practical skills and creativity.</t>
+  </si>
+  <si>
+    <t>Student can find AI plagiarize but not project-based assessments are harder to cheat on since they require personal input</t>
+  </si>
+  <si>
+    <t>Project-based learning with peer evaluations and oral presentations.</t>
+  </si>
+  <si>
+    <t>kamihaider007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Kamran </t>
+  </si>
+  <si>
+    <t>Haider</t>
+  </si>
+  <si>
+    <t>muhammad.haider@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>We get many things to learn in project based assessments.</t>
+  </si>
+  <si>
+    <t>A positive experience I’ve seen with project-based assessment happened with a group of students working on a community-garden design project. Instead of a traditional exam, they had to plan, budget, and present a functional garden that met local climate needs and community interests.</t>
+  </si>
+  <si>
+    <t>One of the most challenging aspects of traditional essay-based assessments is that they often measure a narrow slice of ability rather than the full depth of a student’s understandin</t>
+  </si>
+  <si>
+    <t>Oral assessments can be both helpful and stressful — it really depends on the person, the setting, and the preparation.
+Helpful because:
+They allow students to explain their reasoning in real time and clarify misunderstandings on the spot.
+Communication skills — which are vital in most careers — get tested alongside subject knowledge.
+They can highlight practical understanding better than a written format, especially for complex or applied topics.</t>
+  </si>
+  <si>
+    <t>Project-based and performance-based assessments usually show learning in a more applied, integrated way than most other formats.
+How they compare:
+Depth vs. recall –
+Traditional exams/essays often check what you can recall or explain in words.
+Projects/performances show what you can do with that knowledge in a real or simulated scenario.
+Skill integration –
+Projects naturally combine research, problem-solving, creativity, collaboration, and sometimes technical execution.
+Other formats may measure these skills separately (if at all).
+Authenticity –
+A project feels closer to real-world challenges — designing a solution, building something, or delivering a service.
+This can make the learning more memorable and transferable.
+Evidence of process –
+In a performance-based task, both the product and the process can be assessed, showing how you adapt, plan, and troubleshoot.
+Written exams usually reveal only the final answer, not the thinking journey.
+Engagement –
+Many students find projects more motivating because they can choose a topic or approach, adding a sense of ownership.
+Traditional tests rarely allow that level of personalization.</t>
+  </si>
+  <si>
+    <t>Yes — the format of an assessment can make a big difference in how tempting or easy it is to use AI tools (or other dishonest shortcuts).
+Encourage dishonesty:
+Take-home essays or reports – These are prime targets for AI-written text because the output is hard to distinguish from human work unless there’s strong originality or personal reflection built in.
+Fact-recall online quizzes – Easy to look up answers instantly or feed the questions into AI.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would be a layered, hybrid approach that tests understanding, application, and adaptability — not just memory.
+Here’s how I’d build it:
+Project or case study (core component)
+Students tackle a real-world problem or scenario related to the course.
+Assesses application, problem-solving, and creativity.
+Encourages integration of skills (research, analysis, communication).
+Process portfolio
+Includes planning notes, drafts, decision logs, and reflections.
+Shows the journey as well as the final product, making it harder to fake and easier to see growth.
+Short oral defense / viva
+10–15 minutes of questions on the project.
+Confirms the work is genuinely the student’s and tests their ability to explain and adapt their ideas under light pressure.
+Targeted knowledge check
+A short, focused test (could be written or online) covering key facts, theories, or calculations.
+Ensures baseline mastery of core content.
+Why this works:
+It balances authentic performance (project), process evidence (portfolio), adaptability (oral defense), and core knowledge (test).
+It’s fairer to different learning styles — some excel in projects, others in quick recall.
+It makes academic dishonesty much harder because success depends on consistent engagement over time.
+It produces evidence of skills that are actually relevant beyond the classroom.</t>
+  </si>
+  <si>
+    <t>uzairhussain207@gmail.com</t>
+  </si>
+  <si>
+    <t>Uzair Abid</t>
+  </si>
+  <si>
+    <t>Lakhiar</t>
+  </si>
+  <si>
+    <t>uzair.lakhiar@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Because companies actually work on projects so familiarity with real world challenges is on what a person should be graded on plus its also interactive and fun and effective at the same time.</t>
+  </si>
+  <si>
+    <t>I once had a project-based assessment where I applied concepts to a real problem. It worked well because it was practical, creative, and came with helpful feedback.</t>
+  </si>
+  <si>
+    <t>I find the biggest challenge with traditional essay-based assessments is the time pressure. It often limits my ability to fully develop ideas, making it harder to showcase my actual understanding.</t>
+  </si>
+  <si>
+    <t>I have found it very helpful since the questions are asked to the point and knowledge can be judged based on follow up questions which are also to the point so very effective and time saving.</t>
+  </si>
+  <si>
+    <t>Project-based assessments reflect what I’ve learned more effectively because they showcase practical skills, creativity, and effort, and they often involve collaboration, which mirrors real-world work.</t>
+  </si>
+  <si>
+    <t>Yes, I think traditional written assignments can sometimes encourage academic dishonesty because it’s easier to copy information or use AI tools undetected, whereas project-based or practical assessments make cheating harder since they require original work, personal input, and active participation.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine a project-based task with a short reflective component. The project would let me apply concepts to a real-world scenario, showing practical skills and creativity, while the reflection would highlight my thought process and learning journey. This mix would give a more complete picture of both my abilities and understanding.</t>
+  </si>
+  <si>
+    <t>You could make the questions more open-ended and allow space for examples, so participants can give richer, more specific answers. Also, including optional multiple-choice sections could help gather quick, comparable data alongside detailed feedback.</t>
+  </si>
+  <si>
+    <t>raheelkhan4451@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Raheel</t>
+  </si>
+  <si>
+    <t>Azam</t>
+  </si>
+  <si>
+    <t>muhammad.azam@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I personally prefer performance-based assessments like projects and portfolios. They allow me to apply concepts in practical scenarios, which matches my learning style. This method feels fairer, as it measures both creativity and problem-solving skills, and provides a clearer demonstration of my capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In one course, we had a group project where we developed a working prototype. This assessment worked well because it combined theory with practical application, encouraged collaboration, and allowed us to showcase our strengths. The feedback from the instructor was constructive and helped me improve
+</t>
+  </si>
+  <si>
+    <t>In traditional essay-based assessments, I find the time pressure and risk of misinterpreting the question most challenging. Sometimes the topics feel disconnected from practical applications, making them less engaging. Additionally, the risk of plagiarism is higher, and originality can be harder to demonstrate compared to projects.</t>
+  </si>
+  <si>
+    <t>I have found oral assessments helpful but slightly stressful. They improve my communication skills and help me think on my feet. However, nervousness and language barriers can be challenging. Good preparation and supportive evaluators make the experience more positive and boost my confidence.</t>
+  </si>
+  <si>
+    <t>Project-based assessments show my learning more effectively than exams or essays because they combine practical skills, creativity, and teamwork. They reflect the effort put into planning and execution, and allow me to demonstrate problem-solving abilities in real-world contexts rather than only theoretical knowledge.</t>
+  </si>
+  <si>
+    <t>I think written assessments like essays may encourage more academic dishonesty, including AI tool use, because they are easier to outsource or generate. In contrast, project-based or oral assessments reduce this risk, as they require personal input, interaction, and practical demonstration that is harder to fake</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine a project-based task with a short oral presentation. The project would demonstrate practical skills, creativity, and problem-solving, while the presentation would confirm my understanding and communication ability. This blend ensures fairness, reduces dishonesty, and provides a complete picture of my learning</t>
+  </si>
+  <si>
+    <t>Here’s a 30–50 word example:
+&gt;The form is clear and well-structured, but adding example answers for each question could help participants understand the expected detail and word count.</t>
+  </si>
+  <si>
+    <t>harshkukadiya2023@gmail.com</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Kukadiya</t>
+  </si>
+  <si>
+    <t>harsh.kukadiya@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Projects needs real time assessment and it also gives you real time experience, and usually the time period of it is whole semester so it is fair.</t>
+  </si>
+  <si>
+    <t>I have been assigned one project instead of my bachelor's thesis, and it made sense for me!</t>
+  </si>
+  <si>
+    <t>Firstly, it requires lots of content and plagiarism can influence the evaluation.</t>
+  </si>
+  <si>
+    <t>It is helpful and stressful at the same time, it helps cause it basically needs domain knowledge instead of full content which i like about it.</t>
+  </si>
+  <si>
+    <t>projects give you a chance to show what you have learnt and what you applied in that project, and also team work leads to good interpretation.</t>
+  </si>
+  <si>
+    <t>yes i think so, and especially this new generation is pro in doing this. It is good until you seek help from the AI but directly copied content should not be include in your answer.</t>
+  </si>
+  <si>
+    <t>combination of oral and project based learning.</t>
+  </si>
+  <si>
+    <t>darshakdhameliya45@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshakbhai </t>
+  </si>
+  <si>
+    <t>Dhameliya</t>
+  </si>
+  <si>
+    <t>darshakbhai.dhameliya@stud-fra.de</t>
+  </si>
+  <si>
+    <t>prefer project-based assessments because they allow me to apply concepts in practical, creative ways. This method suits my hands-on learning style, feels fairer than timed exams, and encourages deeper understanding by connecting theory to real-world applications rather than memorizing facts for short-term recall.</t>
+  </si>
+  <si>
+    <t>In one course, we had to design a community outreach project instead of taking a final exam. Working in a team, we applied class theories to real needs. The freedom to be creative, combined with clear guidelines, made the assessment engaging and meaningful.</t>
+  </si>
+  <si>
+    <t>I find traditional essays challenging because they often focus on rigid structures and memorized content rather than practical application. Time pressure and unclear prompts can make it hard to express ideas fully, and sometimes the topics feel disconnected from real-world relevance</t>
+  </si>
+  <si>
+    <t>Oral assessments help build confidence and communication skills, but the pressure of speaking under evaluation can be stressful. Preparation eases this, though nerves can still affect how clearly I express ideas.</t>
+  </si>
+  <si>
+    <t>Project-based assessments show learning better by highlighting practical skills, creativity, and real effort. They often involve teamwork, allowing different strengths to shine, and give a fuller picture of understanding than tests that mainly measure memory or speed.</t>
+  </si>
+  <si>
+    <t>Yes, certain formats can encourage dishonesty. Standard essays or online quizzes are easier to cheat on using AI or copied work. In contrast, project-based or oral assessments make dishonesty harder, as they require personal input, unique ideas, and active participation.</t>
+  </si>
+  <si>
+    <t>My ideal assessment would combine a short essay, a project, and a brief presentation. This mix shows understanding, practical skills, and communication, allowing different strengths to be highlighted while reducing reliance on memorization.</t>
+  </si>
+  <si>
+    <t>mhamzalaghari@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Hamza</t>
+  </si>
+  <si>
+    <t>Laghari</t>
+  </si>
+  <si>
+    <t>muhammad.laghari@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I am able to better explain my thought process and reasoning during an oral assessment and also if there is a question asked by the professor audience, if there is an ambiguity we can easily address that during the course of the assessment by having a small dialogue with them regarding their query.</t>
+  </si>
+  <si>
+    <t>It was an oral assessment. Initially, I didn't understand the question posed by the professor, however, after hearing my answer the professor proceeded understand the ambiguity in the question and proceeded to ask the question in another way, which really helped answer the concern they had.</t>
+  </si>
+  <si>
+    <t>clarity of questions, relevance to learning and plagiarism risk which is often mitigated in other forms of assessments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super helpful, being able to interact with a live audience, given a chance to offer clarity in real time gives an increased sense of satisfaction and achievement afterwards. Moreover, in my experience during face to face conversations you simply learn more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">depending on the topic, i would prefer project-based assessments more as it gives a glimpse of how a particular course/skill will be used in the real life and what are the complications and expectations tied to it. It also augments your creativity, you can involve team members that can offer insights different to you, which is also really helpful in enhancing your skillset and confidence in working with others. </t>
+  </si>
+  <si>
+    <t>I think essay writing is by far the most common when it comes to ease of cheating, e.g., paraphrasing tools, AI writing tools that encourage academic dishonesty and on the contrary, oral assessments even if the content is plagiarized to some extent you have to have a good command on the topic in order to present it adequately and then also defend it against an audience or professor, which makes it harder to simply plagiarize and be done with it.</t>
+  </si>
+  <si>
+    <t>i would first look at the task at hand and then either use a single method (e.g. process based assessment for literary tasks) or a hybrid approach (e.g. database implementation bi-monthly oral presentations to understand students design approaches and thought process and a final project submission to evaluate their ability to build something like this in the real world)</t>
+  </si>
+  <si>
+    <t>maybe also introduce something akin to a Likert scale form to quickly grasp the likeability and unlikability of different assessment types.</t>
+  </si>
+  <si>
+    <t>mibad0338@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Ibad Ur</t>
+  </si>
+  <si>
+    <t>Rehman</t>
+  </si>
+  <si>
+    <t>muhammad.rehman2@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer performance-based assessments because they match my learning style, feel fair, and let me apply knowledge in practical ways instead of just memorizing facts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In one course(Cloud Computing) , I did a project-based assessment where we built a real application. It worked well because it was practical, engaging, and helped me deeply understand the topic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional essay-based assessments can be frustrating because they often have time pressure, vague questions, and sometimes focus more on writing style than truly testing understanding of the topic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found oral assessments stressful because of nervousness and language barriers, but they were also helpful as they improved my confidence and communication skills through direct interaction with evaluators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project-based assessments show my learning better because they reflect practical skills, creativity, and teamwork, and they let me demonstrate real effort instead of just recalling information for a test.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, some formats like take-home essays can encourage dishonesty because they make it easier to use AI tools undetected, while practical or project-based tasks are harder to cheat on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My ideal assessment would combine projects, presentations, and short quizzes. This mix would test practical skills, creativity, and understanding while giving a fair chance to show both knowledge and application.
+</t>
+  </si>
+  <si>
+    <t>amit.eph25@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Sadhu</t>
+  </si>
+  <si>
+    <t>amit.sadhu@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Prepares me for the professional world</t>
+  </si>
+  <si>
+    <t>An oral assessment worked well for me, cause I understood the topic well and was able to explain it clearly.</t>
+  </si>
+  <si>
+    <t>Not the best way to test someone's knowledge about a subject</t>
+  </si>
+  <si>
+    <t>Sometime it has been stressful because you're put on the spot.</t>
+  </si>
+  <si>
+    <t>They're also good. It is very practical.</t>
+  </si>
+  <si>
+    <t>Not really. I think AI tools should be encouraged.</t>
+  </si>
+  <si>
+    <t>Present a project - so both you build a portfolio and you develop presentation skills which are essential for today's industry.</t>
+  </si>
+  <si>
+    <t>Very clear and precise study.</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +2713,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S37" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S59" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="19">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -4229,62 +5041,1330 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="14">
+      <c r="A37" s="8">
         <v>45882.50851319444</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="9">
         <v>1552085.0</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="J37" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="O37" s="15" t="s">
+      <c r="O37" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S37" s="16" t="s">
+      <c r="S37" s="12" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
+        <v>45882.549423136574</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1470325.0</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8">
+        <v>45882.59381210648</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1411818.0</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>45882.64515231481</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1522932.0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8">
+        <v>45882.65949542824</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1502457.0</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>45882.742049872686</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1590108.0</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8">
+        <v>45882.90817188658</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1613245.0</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>45882.92358162037</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1541551.0</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8">
+        <v>45882.93722202546</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1585733.0</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>45883.055752789354</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1.5418415E7</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8">
+        <v>45883.4628140625</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1541861.0</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>45883.46980009259</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1541720.0</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8">
+        <v>45883.469854317125</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1553813.0</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
+        <v>45883.4707366088</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1480221.0</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8">
+        <v>45883.49420701389</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1543229.0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>45883.50265930555</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1511619.0</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8">
+        <v>45883.51500008102</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1511635.0</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>45883.51981572917</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1576443.0</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8">
+        <v>45883.57255359954</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1591022.0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>45883.59646045139</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1543670.0</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8">
+        <v>45883.598352395835</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1475773.0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>45883.60728015046</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1542095.0</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="14">
+        <v>45883.7198331713</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1582448.0</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="788">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2399,6 +2399,278 @@
   </si>
   <si>
     <t>Very clear and precise study.</t>
+  </si>
+  <si>
+    <t>kevalakbari2015@gmail.com</t>
+  </si>
+  <si>
+    <t>kaival</t>
+  </si>
+  <si>
+    <t>Akbari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaival.akbari@stud.fra-uas.de </t>
+  </si>
+  <si>
+    <t>A group project where we built a prototype; it was engaging and clearly linked to course content.</t>
+  </si>
+  <si>
+    <t>I once had a project-based assessment where we created a working prototype for a real client — it felt meaningful, encouraged teamwork, and directly applied the skills I’d learned in class.</t>
+  </si>
+  <si>
+    <t>Time pressure and difficulty making them relevant to real-world applications.</t>
+  </si>
+  <si>
+    <t>Helpful when well-prepared; stressful if surprise questions are too far from core topics.</t>
+  </si>
+  <si>
+    <t>Better at showing practical skills, effort, and teamwork than written exams.</t>
+  </si>
+  <si>
+    <t>Written essays are easier to cheat on; projects make dishonesty harder due to originality and process tracking.</t>
+  </si>
+  <si>
+    <t>A mix of projects, short written reflections, and brief oral presentations to cover different skills.</t>
+  </si>
+  <si>
+    <t>ramya.studentmail@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>Sai Murali</t>
+  </si>
+  <si>
+    <t>ramya.sai-murali@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Its easier to articulate my thoughts spontaneously while speaking, and lower stress as time constraints arent something to be worried about and it  helps me convey messages better as my verbal skills are stronger</t>
+  </si>
+  <si>
+    <t>Oral assessment was something that has worked positively for me and it had a personal touch of having someone to talk to  as compared to being left with a paper alone. I found I could elaborate on my ideas and even ask for guidance if I misunderstood a question, which made the process feel more supportive and less stressful.</t>
+  </si>
+  <si>
+    <t>Time consumption is one major disadvantage. I also tend to stutter finding appropriate words or have to avoid using filler words to make the sentence grammatically more appropriate and easy for the reader to read. Another struggle is punctuations and having to worry about the risk of mistakenly quoting the wrong citings</t>
+  </si>
+  <si>
+    <t>Oral assessments have been both helpful and stressful for me. They’re helpful because I get to explain ideas directly and get instant feedback, but they can be stressful if I feel nervous speaking in front of others.</t>
+  </si>
+  <si>
+    <t>Project-based assessments usually show what I’ve learned better than regular tests. They let me apply my skills in a real way, instead of just memorizing, and I feel my work reflects my actual understanding.</t>
+  </si>
+  <si>
+    <t>Yes, I believe some formats do encourage academic dishonesty. For example, traditional written tests or assignments done at home can make it easier to use AI tools or look up answers and oral exams and project-based tasks are harder to cheat on because you have to show your own understanding and discuss your work directly.</t>
+  </si>
+  <si>
+    <t>An interpersonal oral assessment where there is ample time is given to think and get my thoughts together before asnwering. I believe this can tackle academic dishonesty and at the same time make the candidate feel more relaxed before they could answer</t>
+  </si>
+  <si>
+    <t>Not really, was a great survey overall. Good Luck!</t>
+  </si>
+  <si>
+    <t>danishhere.98@gmail.com</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>danish.ali@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I think project or portfolio compliment one's learning very deeply. Learning or memorizing some information that's already accessible for future use does not help much if you don't know how to implement it. Practical experience has two benefits, its hands-on and also helps to show your learning. I also believe implementing something is a better way to learn that just memorizing. It shows growth and motivation for real-world use.</t>
+  </si>
+  <si>
+    <t>For technical job interviews, I find it better to have take-home tasks. While there is always the possibility that the candidate could cheat, it can be accounted for when you have the next interview. Questions can be raised about the process used to develop the task and it can give you an insight into how knowledgeable the candidate is regarding the task given. It can also rule out cheating.</t>
+  </si>
+  <si>
+    <t>I don't find it as a metric of intelligence because while it can give some insights into how the student thinks, but there are issues like time pressure, plagiarism risks as mentioned above. Also, it might be highly likely that the student is really intelligent in the thinking process but has difficulty putting it down in writing. Or if English is a second language, he/she may not very well-versed into how to carry it out.</t>
+  </si>
+  <si>
+    <t>Yes, these are also complimentary to the learning a student has. It also rules out plagiarism or cheating if the student isn't able to answer any related questions. And again, like practical implementation, it could be tool that can be utilized to better gauge the thinking process of a student.</t>
+  </si>
+  <si>
+    <t>I think practical implementations are a far better metric of analyzing the learning of a student. In theory, there are a lot of flows unaccounted for that can arise while implementing them. It could be as simple as code flows or complex as dependency inconsistencies or logic flow. Memorizing and later writing it down could be good for strictly theoretical concepts but not for real-world technical expertise.</t>
+  </si>
+  <si>
+    <t>I think all formats can be exploited using AI as it can do almost anything with the right prompt. The key is having a session after the completion of the task where the thought process is discussed. It can give better insights into how the student thinks.</t>
+  </si>
+  <si>
+    <t>I think it would be combination of practical implementation (performance based), followed by a presentation where the concepts and maybe technical highlights are shared. It should then be followed by a question/answer session where the professors or people grading the task can have a back and forth with the student. It is a bit more time-consuming and could have issues of availability but students either way have to be available for fixed written exams too. This could potentially take a bit more time of the professors grading the work, but will definitely be a better grading criteria in my opinion.</t>
+  </si>
+  <si>
+    <t>It was good. The prompts/task statement were a little bit ambiguous but the set of prompts provided was very good. I hope my contribution helps. Thanks.</t>
+  </si>
+  <si>
+    <t>afifullah311@gmail.com</t>
+  </si>
+  <si>
+    <t>Afif Ullah</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>afif.khan@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer oral presentations because they allow direct audience engagement, simplify complex ideas through visuals and tone, and provide immediate feedback, making them impactful and adaptable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral is more better because it is less time experienced </t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In project based the critical skills could be assesst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it could discourage the academic honesty as the student use AI tools but don’t understand the </t>
+  </si>
+  <si>
+    <t>I would keep the task shorter and to the poi</t>
+  </si>
+  <si>
+    <t>noumancs2468@gmail.com</t>
+  </si>
+  <si>
+    <t>Nouman</t>
+  </si>
+  <si>
+    <t>Tahir</t>
+  </si>
+  <si>
+    <t>nouman.tahir@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Because it is more about knowledge so viva ,presentations are best way to show this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes i had a course in my masters (Quantum information science) it was viva based , I explained my concepts to the professor easily.  </t>
+  </si>
+  <si>
+    <t>Main thing is it all depends one the checker ,if he likes your way of explanation then you will get number otherwise it is hard to get pass in this type of exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes In find it helpful because it is much easier than any other ways </t>
+  </si>
+  <si>
+    <t>Sorry I have no idea about these too</t>
+  </si>
+  <si>
+    <t>Yes — open-ended, critical thinking assessments tend to discourage dishonesty, as they require personal reasoning and unique responses.
+Highly repetitive or fact-recall formats can encourage it, since answers are easily searchable or generated by AI.</t>
+  </si>
+  <si>
+    <t>It would combine real-world problem-solving tasks with reflective questions, so students apply knowledge in context.
+This format encourages originality, deeper learning, and reduces the temptation for dishonesty.</t>
+  </si>
+  <si>
+    <t>I guess it was all right</t>
+  </si>
+  <si>
+    <t>naqeebahmed1@gmail.com</t>
+  </si>
+  <si>
+    <t>Naqeeb</t>
+  </si>
+  <si>
+    <t>naqeeb.ahmed@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>its tests excellence</t>
+  </si>
+  <si>
+    <t>yes i m ostly get A grade with project type assessment</t>
+  </si>
+  <si>
+    <t>it needs so much of thinking that is worthless</t>
+  </si>
+  <si>
+    <t>Yes , it requires confidence which is difficult for most people</t>
+  </si>
+  <si>
+    <t>project based helps learn new tools and ready you for new project thus new learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes using AI is dishonesty </t>
+  </si>
+  <si>
+    <t>Project based and it gives learning opportunities</t>
+  </si>
+  <si>
+    <t>yes don't try to ask open ended question</t>
+  </si>
+  <si>
+    <t>furqanshafiq.13@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Furqan</t>
+  </si>
+  <si>
+    <t>Shafique</t>
+  </si>
+  <si>
+    <t>muhammad.shafique@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I like oral assessments because I get to have a real conversation with my teacher. It's easier to show what I know and get feedback right away. It feels less stressful than a test and fits how I like to learn and talk about things.</t>
+  </si>
+  <si>
+    <t>I had a good experience during a speaking exam for my English. I was a bit nervous at the start, but my teacher made it feel like a simple chat. The best part was when I was able to explain something in English without having to think too hard about the words.</t>
+  </si>
+  <si>
+    <t>The hardest part about essays is that they don't feel real. We have to write in a very specific way that's not how we normally talk or write. It feels more like a test of whether I can follow rules than a way to show what I really know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I generally find oral assessments helpful. Even though they can be a bit stressful, I feel a lot more prepared after doing one. It forces me to really understand the material and not just memorize it. </t>
+  </si>
+  <si>
+    <t>Project-based assessments are great for showing what you can actually do. They let you use your skills and creativity to solve problems, unlike a regular test that just checks what you've memorized. They also show how you can work with others and put in long-term effort.</t>
+  </si>
+  <si>
+    <t>Certain test types can encourage or discourage cheating. For example, take-home essays might encourage it because students can easily use AI. In contrast, oral exams and in-person tests discourage cheating because you must use your own knowledge and speak in person.</t>
+  </si>
+  <si>
+    <t>I would design my ideal test by combining a project and a final talk. Firstly, I do work on a project throughout the course, like a research paper. This would let me use my skills. At the end, I would have a direct conversation with my teacher about my work. This is the best approach for me because it forces me to truly understand the material, rather than just memorizing facts. So, I think the best way to be tested is by doing a project and then talking about it.</t>
+  </si>
+  <si>
+    <t>felixlego33@gmail.com</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Asaad</t>
+  </si>
+  <si>
+    <t>hamza.asaad@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>Projects are multi day efforts that can wholistically cover many aspects of the course</t>
+  </si>
+  <si>
+    <t>Assessment was based to create a Medical Digital Twin for a Dual Hormone Pump it worked well for me since it helped us considered all aspects taught by the course itself naturally and intuitively</t>
+  </si>
+  <si>
+    <t>Essay based assignments can become centered on word counts and padding and become less focused on the aim of the essay</t>
+  </si>
+  <si>
+    <t>Vivas are worse because it is tough for limited oral exams to test all areas based on luck testing the weakest or strongest concepts</t>
+  </si>
+  <si>
+    <t>Project-based or performance-based assessments often show learning more effectively than traditional tests because they highlight practical skills, creativity, and the ability to apply knowledge in real situations. Unlike exams that mainly measure recall, these formats demonstrate effort over time and often involve teamwork, making them a better reflection of real-world problem solving and collaboration.</t>
+  </si>
+  <si>
+    <t>Certain assessment formats which encourage regurtiation of a material rather than building new content can encourage AI tools yes.</t>
+  </si>
+  <si>
+    <t>An ideal assessment should be laid out with an interesting challenge in the industry take engineering for example and pick a team and lay out a plan to create a project with deliverable and a final presentation of the project.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2985,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S59" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S67" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="19">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -6309,62 +6581,525 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="14">
+      <c r="A59" s="8">
         <v>45883.7198331713</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="9">
         <v>1582448.0</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="15" t="s">
+      <c r="J59" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="K59" s="15" t="s">
+      <c r="K59" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="M59" s="15" t="s">
+      <c r="M59" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="N59" s="15" t="s">
+      <c r="N59" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="O59" s="15" t="s">
+      <c r="O59" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="P59" s="15" t="s">
+      <c r="P59" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="Q59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R59" s="15" t="s">
+      <c r="R59" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S59" s="16" t="s">
+      <c r="S59" s="12" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>45884.4475359375</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1387256.0</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8">
+        <v>45884.72315643518</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1584020.0</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
+        <v>45884.75560260417</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1541535.0</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8">
+        <v>45884.81367177083</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1504761.0</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>45885.006126064814</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1503032.0</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8">
+        <v>45885.01255431713</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1505317.0</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>45885.93729962963</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1521612.0</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="14">
+        <v>45886.062261875</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="F67" s="15">
+        <v>1581917.0</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="800">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2671,6 +2671,42 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>chiragasthana@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirag Krishnachandra </t>
+  </si>
+  <si>
+    <t>Asthana</t>
+  </si>
+  <si>
+    <t>chirag.asthana@stud.fra-uas.de</t>
+  </si>
+  <si>
+    <t>I prefer oral assessments because they allow me to express ideas clearly, demonstrate understanding in real-time, and adapt responses to questions. This method suits my learning style, builds confidence, and feels fairer as it values communication skills alongside knowledge.</t>
+  </si>
+  <si>
+    <t>A positive experience I had was during a project-based assessment where I presented my research. It worked well because I could apply theory to practice, showcase creativity, and explain my ideas confidently. The interactive feedback from the examiner made the process motivating and meaningful.</t>
+  </si>
+  <si>
+    <t>The most challenging aspect of traditional essay-based assessments is the time pressure and the struggle to organize ideas clearly within strict limits. Sometimes questions feel vague or less relevant to real learning, and there’s always a concern about unintentional plagiarism affecting fairness.</t>
+  </si>
+  <si>
+    <t>I have found oral assessments both helpful and slightly stressful. They are helpful because they improve confidence, communication, and quick thinking. However, they can be stressful due to language pressure and interaction with evaluators, which requires strong preparation and presence of mind to perform well.</t>
+  </si>
+  <si>
+    <t>Project-based assessments reflect learning better than traditional formats because they highlight practical skills, creativity, and consistent effort. They also encourage problem-solving and teamwork, making the process more engaging and realistic. Unlike exams, they provide a clearer picture of applied knowledge and overall understanding.</t>
+  </si>
+  <si>
+    <t>Yes, certain formats like essay-based or take-home written assessments may encourage academic dishonesty since using AI tools or online resources is easier and harder to detect. In contrast, oral or project-based assessments reduce such temptations as they require real-time responses and personal engagement.</t>
+  </si>
+  <si>
+    <t>My ideal assessment format would include presentations and project-based tasks. Presentations help me build confidence, showcase communication skills, and explain ideas clearly, while project-based tasks highlight creativity, problem-solving, and practical application. Together, they provide a fair and effective way to reflect my learning and skills.</t>
+  </si>
+  <si>
+    <t>This form is already very effective as it encourages reflection and allows honest expression of opinions. It is well-structured and easy to understand. Keeping this clear and thoughtful approach will continue to make the study engaging and beneficial for learners.</t>
   </si>
 </sst>
 </file>
@@ -2834,10 +2870,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2845,13 +2881,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2859,13 +2895,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2985,7 +3021,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S67" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S68" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="19">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -3209,6 +3245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7044,65 +7081,127 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="14">
+      <c r="A67" s="8">
         <v>45886.062261875</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="9">
         <v>1581917.0</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="M67" s="15" t="s">
+      <c r="M67" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="N67" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="O67" s="15" t="s">
+      <c r="O67" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="P67" s="15" t="s">
+      <c r="P67" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="Q67" s="15" t="s">
+      <c r="Q67" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R67" s="15" t="s">
+      <c r="R67" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S67" s="16" t="s">
+      <c r="S67" s="12" t="s">
         <v>787</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="14">
+        <v>45887.93217050926</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="F68" s="15">
+        <v>1583403.0</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
